--- a/_static/global/rankrankings/workers_rank_re_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_male.xlsx
@@ -49,16 +49,16 @@
     <t>Edosagbe</t>
   </si>
   <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Jamarii</t>
+    <t>Corey</t>
   </si>
   <si>
     <t>Brennan</t>
-  </si>
-  <si>
-    <t>Corey</t>
   </si>
   <si>
     <t>Masuf</t>
@@ -480,7 +480,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>13.39831089107569</v>
+        <v>13.45172621041747</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -503,7 +503,7 @@
         <v>18</v>
       </c>
       <c r="E3">
-        <v>8.250726125048393</v>
+        <v>8.467383315037575</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="E4">
-        <v>7.299729955053766</v>
+        <v>7.263320786645187</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -549,7 +549,7 @@
         <v>18</v>
       </c>
       <c r="E5">
-        <v>7.128360395512098</v>
+        <v>7.045923228846132</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -572,7 +572,7 @@
         <v>18</v>
       </c>
       <c r="E6">
-        <v>5.236632452486271</v>
+        <v>5.285624560074965</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
@@ -586,7 +586,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -595,10 +595,10 @@
         <v>18</v>
       </c>
       <c r="E7">
-        <v>5.035456380598204</v>
+        <v>5.22667163757618</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -609,7 +609,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -618,10 +618,10 @@
         <v>18</v>
       </c>
       <c r="E8">
-        <v>5.022888028469472</v>
+        <v>5.193444245373518</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8">
         <v>7</v>
@@ -632,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -641,7 +641,7 @@
         <v>18</v>
       </c>
       <c r="E9">
-        <v>4.269330618354823</v>
+        <v>4.163691280357252</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -655,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -664,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="E10">
-        <v>4.181247080692733</v>
+        <v>4.093901744365527</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -687,7 +687,7 @@
         <v>18</v>
       </c>
       <c r="E11">
-        <v>3.117797833664232</v>
+        <v>3.064644559899139</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -710,7 +710,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>2.287562350550969</v>
+        <v>2.350791450174602</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -733,7 +733,7 @@
         <v>18</v>
       </c>
       <c r="E13">
-        <v>2.209996185476621</v>
+        <v>2.331889986248744</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>

--- a/_static/global/rankrankings/workers_rank_re_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_male.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>index</t>
   </si>
   <si>
+    <t>prolificid</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -34,40 +37,76 @@
     <t>re_rank</t>
   </si>
   <si>
+    <t>60b091ed11ccda59e3fc7761</t>
+  </si>
+  <si>
+    <t>601d69a993d94008fb2b25dc</t>
+  </si>
+  <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
+    <t>5ff8ad350d084e10f500e48a</t>
+  </si>
+  <si>
+    <t>60db4fde6193c50664c9c478</t>
+  </si>
+  <si>
+    <t>5dd671942b033b5ec8bc97b4</t>
+  </si>
+  <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
+    <t>60b322994d0b901954690036</t>
+  </si>
+  <si>
+    <t>5e2522d6b734b47915f88275</t>
+  </si>
+  <si>
+    <t>6088fc724afd5c008db33e9d</t>
+  </si>
+  <si>
+    <t>6097b95056caf5ebb2720002</t>
+  </si>
+  <si>
+    <t>60b83826821417f8e484a207</t>
+  </si>
+  <si>
     <t>Myles</t>
   </si>
   <si>
     <t>Quinterius</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
     <t>Drew</t>
   </si>
   <si>
-    <t>Matthew</t>
-  </si>
-  <si>
     <t>Edosagbe</t>
   </si>
   <si>
+    <t>Juan</t>
+  </si>
+  <si>
     <t>Jamarii</t>
   </si>
   <si>
-    <t>Juan</t>
+    <t>Brennan</t>
   </si>
   <si>
     <t>Corey</t>
   </si>
   <si>
-    <t>Brennan</t>
-  </si>
-  <si>
     <t>Masuf</t>
   </si>
   <si>
+    <t>Damian</t>
+  </si>
+  <si>
     <t>Eli</t>
-  </si>
-  <si>
-    <t>Damian</t>
   </si>
   <si>
     <t>male</t>
@@ -440,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +504,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -474,22 +516,25 @@
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>13.45172621041747</v>
-      </c>
-      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="G2">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2">
+        <v>13.48524091344236</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -497,68 +542,77 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>8.467383315037575</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <v>8.41655457137187</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>7.263320786645187</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <v>7.329976078078919</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>7.045923228846132</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>7.217939142941571</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -566,114 +620,129 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6">
-        <v>5.285624560074965</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>5.366656653952606</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>5.22667163757618</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>5.23281095267766</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>5.193444245373518</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>5.099160166839549</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9">
-        <v>4.163691280357252</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>4.111111164481627</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>4.088873157346726</v>
+      </c>
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>4.093901744365527</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -681,64 +750,73 @@
         <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <v>3.064644559899139</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>3.326168639869025</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>2.350791450174602</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12">
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>2.338825072770427</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>2.331889986248744</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>2.32406207211523</v>
+      </c>
+      <c r="G13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13">
         <v>12</v>
       </c>
     </row>

--- a/_static/global/rankrankings/workers_rank_re_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_male.xlsx
@@ -43,12 +43,12 @@
     <t>601d69a993d94008fb2b25dc</t>
   </si>
   <si>
+    <t>5ff8ad350d084e10f500e48a</t>
+  </si>
+  <si>
     <t>60c2341fe95d71ee52c043f0</t>
   </si>
   <si>
-    <t>5ff8ad350d084e10f500e48a</t>
-  </si>
-  <si>
     <t>60db4fde6193c50664c9c478</t>
   </si>
   <si>
@@ -58,33 +58,33 @@
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
+    <t>5e2522d6b734b47915f88275</t>
+  </si>
+  <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>5e2522d6b734b47915f88275</t>
-  </si>
-  <si>
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>60b83826821417f8e484a207</t>
+  </si>
+  <si>
     <t>6097b95056caf5ebb2720002</t>
   </si>
   <si>
-    <t>60b83826821417f8e484a207</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
     <t>Quinterius</t>
   </si>
   <si>
+    <t>Drew</t>
+  </si>
+  <si>
     <t>Matthew</t>
   </si>
   <si>
-    <t>Drew</t>
-  </si>
-  <si>
     <t>Edosagbe</t>
   </si>
   <si>
@@ -94,19 +94,19 @@
     <t>Jamarii</t>
   </si>
   <si>
+    <t>Corey</t>
+  </si>
+  <si>
     <t>Brennan</t>
   </si>
   <si>
-    <t>Corey</t>
-  </si>
-  <si>
     <t>Masuf</t>
   </si>
   <si>
+    <t>Eli</t>
+  </si>
+  <si>
     <t>Damian</t>
-  </si>
-  <si>
-    <t>Eli</t>
   </si>
   <si>
     <t>male</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.48524091344236</v>
+        <v>13.17322371252606</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>8.41655457137187</v>
+        <v>8.25975769155853</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>7.329976078078919</v>
+        <v>7.198709993617562</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.217939142941571</v>
+        <v>7.013420770724821</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.366656653952606</v>
+        <v>5.30118687809812</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.23281095267766</v>
+        <v>5.217927984380697</v>
       </c>
       <c r="G7" t="s">
         <v>34</v>
@@ -681,7 +681,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.099160166839549</v>
+        <v>5.022934074744907</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -707,7 +707,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>4.111111164481627</v>
+        <v>4.346124827430741</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.088873157346726</v>
+        <v>4.218944548501164</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.326168639869025</v>
+        <v>3.102299781206951</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -773,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -785,10 +785,10 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.338825072770427</v>
+        <v>2.368353172506046</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -811,10 +811,10 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>2.32406207211523</v>
+        <v>2.301699192143767</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>12</v>

--- a/_static/global/rankrankings/workers_rank_re_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_male.xlsx
@@ -43,18 +43,18 @@
     <t>601d69a993d94008fb2b25dc</t>
   </si>
   <si>
+    <t>60c2341fe95d71ee52c043f0</t>
+  </si>
+  <si>
     <t>5ff8ad350d084e10f500e48a</t>
   </si>
   <si>
-    <t>60c2341fe95d71ee52c043f0</t>
+    <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
     <t>60db4fde6193c50664c9c478</t>
   </si>
   <si>
-    <t>5dd671942b033b5ec8bc97b4</t>
-  </si>
-  <si>
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
@@ -79,16 +79,16 @@
     <t>Quinterius</t>
   </si>
   <si>
+    <t>Matthew</t>
+  </si>
+  <si>
     <t>Drew</t>
   </si>
   <si>
-    <t>Matthew</t>
+    <t>Juan</t>
   </si>
   <si>
     <t>Edosagbe</t>
-  </si>
-  <si>
-    <t>Juan</t>
   </si>
   <si>
     <t>Jamarii</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.17322371252606</v>
+        <v>13.19982871425305</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>8.25975769155853</v>
+        <v>8.081433205567341</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -565,7 +565,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>7.198709993617562</v>
+        <v>7.048241805590385</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -591,7 +591,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.013420770724821</v>
+        <v>7.000947600168775</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -629,10 +629,10 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.30118687809812</v>
+        <v>5.239313832273305</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -655,10 +655,10 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.217927984380697</v>
+        <v>5.186302527479196</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -681,7 +681,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.022934074744907</v>
+        <v>5.018452747422359</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -707,7 +707,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>4.346124827430741</v>
+        <v>4.155549573790759</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.218944548501164</v>
+        <v>4.034175108618071</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.102299781206951</v>
+        <v>3.262000135003892</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -785,7 +785,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.368353172506046</v>
+        <v>2.30063950806506</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>2.301699192143767</v>
+        <v>2.244526961475056</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>

--- a/_static/global/rankrankings/workers_rank_re_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_male.xlsx
@@ -49,21 +49,21 @@
     <t>5ff8ad350d084e10f500e48a</t>
   </si>
   <si>
+    <t>60db4fde6193c50664c9c478</t>
+  </si>
+  <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
-    <t>60db4fde6193c50664c9c478</t>
-  </si>
-  <si>
-    <t>60bf9943e4e04642d4634ecc</t>
+    <t>60b322994d0b901954690036</t>
   </si>
   <si>
     <t>5e2522d6b734b47915f88275</t>
   </si>
   <si>
-    <t>60b322994d0b901954690036</t>
-  </si>
-  <si>
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
@@ -85,19 +85,19 @@
     <t>Drew</t>
   </si>
   <si>
+    <t>Edosagbe</t>
+  </si>
+  <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Edosagbe</t>
-  </si>
-  <si>
-    <t>Jamarii</t>
+    <t>Brennan</t>
   </si>
   <si>
     <t>Corey</t>
-  </si>
-  <si>
-    <t>Brennan</t>
   </si>
   <si>
     <t>Masuf</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.19982871425305</v>
+        <v>13.04325402792447</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>8.081433205567341</v>
+        <v>8.342377812971202</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>7.048241805590385</v>
+        <v>7.489472321657063</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.000947600168775</v>
+        <v>7.219432926815826</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -629,10 +629,10 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.239313832273305</v>
+        <v>5.404956080902719</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <v>5</v>
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.186302527479196</v>
+        <v>5.203546488046102</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -681,10 +681,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.018452747422359</v>
+        <v>5.194694186643499</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -707,7 +707,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>4.155549573790759</v>
+        <v>4.334666484926464</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.034175108618071</v>
+        <v>4.178693876440433</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.262000135003892</v>
+        <v>3.419194189605884</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -785,7 +785,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.30063950806506</v>
+        <v>2.385885516067507</v>
       </c>
       <c r="G12" t="s">
         <v>33</v>
@@ -811,7 +811,7 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>2.244526961475056</v>
+        <v>2.223286854337817</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>

--- a/_static/global/rankrankings/workers_rank_re_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_male.xlsx
@@ -49,30 +49,30 @@
     <t>5ff8ad350d084e10f500e48a</t>
   </si>
   <si>
+    <t>60bf9943e4e04642d4634ecc</t>
+  </si>
+  <si>
+    <t>5dd671942b033b5ec8bc97b4</t>
+  </si>
+  <si>
     <t>60db4fde6193c50664c9c478</t>
   </si>
   <si>
-    <t>60bf9943e4e04642d4634ecc</t>
-  </si>
-  <si>
-    <t>5dd671942b033b5ec8bc97b4</t>
+    <t>5e2522d6b734b47915f88275</t>
   </si>
   <si>
     <t>60b322994d0b901954690036</t>
   </si>
   <si>
-    <t>5e2522d6b734b47915f88275</t>
-  </si>
-  <si>
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>6097b95056caf5ebb2720002</t>
+  </si>
+  <si>
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
-    <t>6097b95056caf5ebb2720002</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -85,28 +85,28 @@
     <t>Drew</t>
   </si>
   <si>
+    <t>Jamarii</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
     <t>Edosagbe</t>
   </si>
   <si>
-    <t>Jamarii</t>
-  </si>
-  <si>
-    <t>Juan</t>
+    <t>Corey</t>
   </si>
   <si>
     <t>Brennan</t>
   </si>
   <si>
-    <t>Corey</t>
-  </si>
-  <si>
     <t>Masuf</t>
   </si>
   <si>
+    <t>Damian</t>
+  </si>
+  <si>
     <t>Eli</t>
-  </si>
-  <si>
-    <t>Damian</t>
   </si>
   <si>
     <t>male</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.04325402792447</v>
+        <v>13.08405170480421</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>8.342377812971202</v>
+        <v>8.317598354541474</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>7.489472321657063</v>
+        <v>7.382070019746715</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.219432926815826</v>
+        <v>7.27978505289396</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -617,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.404956080902719</v>
+        <v>5.430038462157364</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -655,10 +655,10 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.203546488046102</v>
+        <v>5.411470426993446</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -681,10 +681,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.194694186643499</v>
+        <v>5.05463621270477</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -707,7 +707,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>4.334666484926464</v>
+        <v>4.430868679986358</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -721,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.178693876440433</v>
+        <v>4.412626648038093</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.419194189605884</v>
+        <v>3.327095999247362</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -773,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -785,10 +785,10 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.385885516067507</v>
+        <v>2.26493513038394</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -811,10 +811,10 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>2.223286854337817</v>
+        <v>2.202334476874346</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>12</v>

--- a/_static/global/rankrankings/workers_rank_re_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_male.xlsx
@@ -52,12 +52,12 @@
     <t>60bf9943e4e04642d4634ecc</t>
   </si>
   <si>
+    <t>60db4fde6193c50664c9c478</t>
+  </si>
+  <si>
     <t>5dd671942b033b5ec8bc97b4</t>
   </si>
   <si>
-    <t>60db4fde6193c50664c9c478</t>
-  </si>
-  <si>
     <t>5e2522d6b734b47915f88275</t>
   </si>
   <si>
@@ -67,12 +67,12 @@
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>60b83826821417f8e484a207</t>
+  </si>
+  <si>
     <t>6097b95056caf5ebb2720002</t>
   </si>
   <si>
-    <t>60b83826821417f8e484a207</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>Jamarii</t>
   </si>
   <si>
+    <t>Edosagbe</t>
+  </si>
+  <si>
     <t>Juan</t>
   </si>
   <si>
-    <t>Edosagbe</t>
-  </si>
-  <si>
     <t>Corey</t>
   </si>
   <si>
@@ -103,10 +103,10 @@
     <t>Masuf</t>
   </si>
   <si>
+    <t>Eli</t>
+  </si>
+  <si>
     <t>Damian</t>
-  </si>
-  <si>
-    <t>Eli</t>
   </si>
   <si>
     <t>male</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.08405170480421</v>
+        <v>13.01215981117364</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>8.317598354541474</v>
+        <v>8.480054693822751</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>7.382070019746715</v>
+        <v>7.476982114631664</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.27978505289396</v>
+        <v>7.283504847855609</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.430038462157364</v>
+        <v>5.288466015748947</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -643,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -655,10 +655,10 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.411470426993446</v>
+        <v>5.276213646677543</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -669,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
@@ -681,10 +681,10 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.05463621270477</v>
+        <v>5.00143092683078</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8">
         <v>7</v>
@@ -707,7 +707,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>4.430868679986358</v>
+        <v>4.275591191179309</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.412626648038093</v>
+        <v>4.151918691359521</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.327095999247362</v>
+        <v>3.329972696343859</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -773,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -785,10 +785,10 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.26493513038394</v>
+        <v>2.177627561568944</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -811,10 +811,10 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>2.202334476874346</v>
+        <v>2.103275006361129</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>12</v>

--- a/_static/global/rankrankings/workers_rank_re_male.xlsx
+++ b/_static/global/rankrankings/workers_rank_re_male.xlsx
@@ -67,12 +67,12 @@
     <t>6088fc724afd5c008db33e9d</t>
   </si>
   <si>
+    <t>6097b95056caf5ebb2720002</t>
+  </si>
+  <si>
     <t>60b83826821417f8e484a207</t>
   </si>
   <si>
-    <t>6097b95056caf5ebb2720002</t>
-  </si>
-  <si>
     <t>Myles</t>
   </si>
   <si>
@@ -103,10 +103,10 @@
     <t>Masuf</t>
   </si>
   <si>
+    <t>Damian</t>
+  </si>
+  <si>
     <t>Eli</t>
-  </si>
-  <si>
-    <t>Damian</t>
   </si>
   <si>
     <t>male</t>
@@ -525,7 +525,7 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>13.01215981117364</v>
+        <v>13.29683150174694</v>
       </c>
       <c r="G2" t="s">
         <v>32</v>
@@ -551,7 +551,7 @@
         <v>31</v>
       </c>
       <c r="F3">
-        <v>8.480054693822751</v>
+        <v>8.442021786703412</v>
       </c>
       <c r="G3" t="s">
         <v>32</v>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>7.476982114631664</v>
+        <v>7.404702027677391</v>
       </c>
       <c r="G4" t="s">
         <v>33</v>
@@ -603,7 +603,7 @@
         <v>31</v>
       </c>
       <c r="F5">
-        <v>7.283504847855609</v>
+        <v>7.160622382233508</v>
       </c>
       <c r="G5" t="s">
         <v>33</v>
@@ -629,7 +629,7 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>5.288466015748947</v>
+        <v>5.402452916932003</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -655,7 +655,7 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>5.276213646677543</v>
+        <v>5.297461556733766</v>
       </c>
       <c r="G7" t="s">
         <v>32</v>
@@ -681,7 +681,7 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>5.00143092683078</v>
+        <v>5.132600155139131</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -707,7 +707,7 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>4.275591191179309</v>
+        <v>4.390731964014523</v>
       </c>
       <c r="G9" t="s">
         <v>33</v>
@@ -733,7 +733,7 @@
         <v>31</v>
       </c>
       <c r="F10">
-        <v>4.151918691359521</v>
+        <v>4.389711251129868</v>
       </c>
       <c r="G10" t="s">
         <v>33</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
       <c r="F11">
-        <v>3.329972696343859</v>
+        <v>3.29245665633912</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
@@ -773,7 +773,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -785,10 +785,10 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>2.177627561568944</v>
+        <v>2.097423229951403</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>11</v>
@@ -799,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -811,10 +811,10 @@
         <v>31</v>
       </c>
       <c r="F13">
-        <v>2.103275006361129</v>
+        <v>2.005455606839798</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>12</v>
